--- a/Projects/Watering_System/Docs/WateringSystemCalc.xlsx
+++ b/Projects/Watering_System/Docs/WateringSystemCalc.xlsx
@@ -1,40 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2906AEC4-BAF6-4BEC-8A13-9CC7FE3A84EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="12825" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>PWM motor</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>f</t>
+    <t>R1</t>
   </si>
   <si>
-    <t>e</t>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>hmax</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>res_W</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>Rw</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>ro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,7 +116,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -82,6 +129,938 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet2!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8155555.555555555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>878846.15384615387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>437547.89272030647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>327023.31961591222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110171.6738197425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68457.300275482092</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28F6-4FB8-9F8E-DD922A841764}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="439256600"/>
+        <c:axId val="439256272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="439256600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439256272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="439256272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439256600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF5C0B0-43BA-41C6-8037-85D901A570AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet1 (2)"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2">
+            <v>1E-3</v>
+          </cell>
+          <cell r="E2">
+            <v>8155555.555555555</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>0.01</v>
+          </cell>
+          <cell r="E3">
+            <v>878846.15384615387</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>0.02</v>
+          </cell>
+          <cell r="E4">
+            <v>437547.89272030647</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>0.03</v>
+          </cell>
+          <cell r="E5">
+            <v>327023.31961591222</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>0.1</v>
+          </cell>
+          <cell r="E6">
+            <v>110171.6738197425</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>0.15</v>
+          </cell>
+          <cell r="E7">
+            <v>68457.300275482092</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -160,6 +1139,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -195,6 +1191,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,46 +1383,448 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <f>B1*C2/(C1-C2)</f>
+        <v>250</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="e">
-        <f>1/(2*PI()*B4*B3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <f>(C3*(B1+B2)-C1*(B2))/(C1-C3)</f>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="1">
+        <f>(C4*(B1+B2+B3)-C1*(B2+B3))/(C1-C4)</f>
+        <v>833.33333333333303</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>10000</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <f>(C5*(B1+B2+B3+B4)-C1*(B2+B3+B4))/(C1-C5)</f>
+        <v>2500.0000000000009</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f>PI()*B9^2</f>
+        <v>0.11341149479459153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f>B11/B10*B8</f>
+        <v>10580.938044890549</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5370E2-3D9F-485A-B883-DED95A8B1053}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>65000</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <f>(C2*(2*E1*B1)-E1^2*(C1-C2))/(E1*(C1-C2)-C2*B1)</f>
+        <v>-1056000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <f>(C3*(B1+B2)-C1*(B2))/(C1-C3)</f>
+        <v>1099333.3333333333</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <f>(C4*(B1+B2+B3)-C1*(B2+B3))/(C1-C4)</f>
+        <v>54166.666666666744</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <f>(C5*(B1+B2+B3+B4)-C1*(B2+B3+B4))/(C1-C5)</f>
+        <v>162500</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f>PI()*B9^2</f>
+        <v>0.11341149479459153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f>B11/B10*B8</f>
+        <v>10580.938044890549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D4E5C-0FAC-4768-B8ED-95B929C74C7A}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B2">
+        <v>2.202</v>
+      </c>
+      <c r="C2">
+        <v>2.7E-4</v>
+      </c>
+      <c r="D2">
+        <f>B2/C2</f>
+        <v>8155.5555555555557</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2/A2</f>
+        <v>8155555.555555555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>2.2850000000000001</v>
+      </c>
+      <c r="C3">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D16" si="0">B3/C3</f>
+        <v>8788.461538461539</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E7" si="1">D3/A3</f>
+        <v>878846.15384615387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>2.2839999999999998</v>
+      </c>
+      <c r="C4">
+        <v>2.61E-4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>8750.9578544061296</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>437547.89272030647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="C5">
+        <v>2.43E-4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>9810.699588477366</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>327023.31961591222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="C6">
+        <v>2.33E-4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>11017.16738197425</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>110171.6738197425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B7">
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="C7">
+        <v>2.42E-4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>10268.595041322313</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>68457.300275482092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>